--- a/NewAudio/Audio.xlsx
+++ b/NewAudio/Audio.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\RunningMachine\NewAudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\01.Code\01.Sport1_Projects\01.Hecquyn_270_PCs_F102\NewAudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D063C45B-B53E-4561-95A4-915FB4468CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -177,9 +178,6 @@
     <t>028</t>
   </si>
   <si>
-    <t>Chúc mừng bạn đã hoàn thành bài chạy.Bạn hãy thả lỏng cơ thể bằng 5 phút mát xa với thiết bị tích hợp trên máy. Để biết thêm thông tin về máy tập và các sản phẩm mới, hãy truy cập sport one chấm vn. Cảm ơn bạn đã sử dụng tôi. Hẹn bạn vào buổi tập tiếp theo nhé</t>
-  </si>
-  <si>
     <t>Bài tập 2: Nhấn phím Start để bắt đầu chạy, Nhấn phím Program để tiếp tục chuyển sang bài tập khác.</t>
   </si>
   <si>
@@ -208,9 +206,6 @@
   </si>
   <si>
     <t>029</t>
-  </si>
-  <si>
-    <t>Chào mừng bạn đến với máy tập thông minh Sport One.</t>
   </si>
   <si>
     <t>Chào mừng bạn đến với máy tập thông minh Sport One.
@@ -373,17 +368,118 @@
     <t>Sau 5 phút đầu tiên, cứ 2 phút nhắc 1 lần -&gt; 1p 1 lần</t>
   </si>
   <si>
-    <t>5 phút đầu tiên, nhắc tăng tốc sau 1p</t>
-  </si>
-  <si>
     <t>Bạn đang luyện tập với bài tập mặc định, chú ý giữ an toàn khi máy thay đổi độ dốc và tốc độ nhé</t>
+  </si>
+  <si>
+    <t>Chúc mừng bạn đã hoàn thành buổi tập. Bạn không nên ngồi xuống ngay hãy đi lại nhẹ nhàng và hít thở đều. Bước 8 bạn sử dụng máy mát xa năm đến mười phút để thả lỏng cơ bằng cách khoác dây đai mát xa vào người và ấn công tắc mở để bắt đầu mát xa, di chuyển dây đai mát xa đến các vị trí như bụng, lưng vai gáy, mông đùi, mỗi vị trí mát xa khoảng một phút rồi di chuyển dây đai đến vị trí khác. Bước 9 khi tập luyện xong bạn nên uống nước lọc, không lên uống nước có ga. Chú ý khi uống nước theo ngụm nhỏ uống từ từ, không lên uống nhanh. Với 30 phút tập luyện mỗi ngày bạn sẽ có một dáng vóc hoàn hảo, đặc biệt tốt cho hệ tim mạch, tăng cường trao đổi chất, giúp cơ thể cải thiện hệ thống xương khớp, tăng sự dẻo dai cho cơ thể. Nếu bạn là một chuyên gia, thường xuyên luyện tập có thể bỏ qua chức năng huấn luyện viên để quan tâm đến các chức năng theo dõi tim mạch calo bằng cách nhấn nút stop 3 giây khi khởi động máy để bỏ qua trợ lý ảo nhé. Bạn hãy nhấn nút bơm dầu để chuyển giọng nam hoặc nữ. Với máy tập thông minh Hec Quyn bạn sẽ có trải nghiệm tập như chơi, dáng tuyệt vời. Cảm ơn bạn đã sử dụng tôi. Hẹn bạn vào buổi tập tiếp theo nhé.</t>
+  </si>
+  <si>
+    <r>
+      <t>Bước 4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Với khoảng 10 phút tiếp theo bạn ấn phím Speed cộng để tăng lên tốc độ từ 5 đến 7 km trên giờ để chạy chậm , từ 7 đến 9 km trên giờ để chạy trung bình  . Để tăng độ khó và đốt nhiều hơn calo bạn hãy ấn nút mũi tên lên Incline bên trái để nâng độ dốc. Khi chạy mắt nhìn thẳng về phía trước, lưng thẳng , 2 tay co vuông góc đánh theo nhịp bước chân, khi chạy một nửa bàn chân trước tiếp xúc với bàn chạy, luôn giữ nhịp thở đều</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bước 5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Với khoảng 5 phút tiếp theo bạn có thể sử dụng phím Speed cộng để thay đổi tốc độ chạy nhanh từ 9 đến 14 kilomet trên giờ để đốt calo nhiều hơn, bạn</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>luôn giữ hơi thở đều để không ảnh hưởng đến nhịp tim , nếu bạn cảm thấy mệt, hơi thở gấp hãy ấn nút speed trừ để giảm tốc độ cho phù hợp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bước 7</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Bạn hãy ấn nút Stop để kết thức bài tập</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bước 6</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Với khoảng 5 đến 10 phút tiếp theo bạn có thể sử dụng phím Speed trừ và mũi tên xuống incline bên phải để giảm độ dốc và tốc độ cho phù hợp cơ thể không bị dừng vận động đột ngột.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bạn hãy ấn nút Speed cộng để tăng dần tốc độ, nên bước đều chân ,thẳng lưng, mắt nhìn thẳng hướng về phía trước,lấy hơi thở đều để không ảnh hưởng đến nhịp tim, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nếu bạn cảm thấy mệt, hơi thở gấp hãy ấn nút speed trừ để giảm tốc độ cho phù hợp</t>
+    </r>
+  </si>
+  <si>
+    <t>Chạy với bài tập mặc định</t>
+  </si>
+  <si>
+    <t>Sau 30s nhắc 1 lần</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +492,28 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -442,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -491,6 +609,16 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,33 +899,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113" style="4" customWidth="1"/>
     <col min="5" max="5" width="38" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" style="7" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="81.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="83.54296875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="24.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="81.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="83.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>1</v>
@@ -806,62 +934,62 @@
         <v>2</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H1" s="16">
         <v>44114</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="406" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="333.5" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -869,10 +997,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -880,10 +1008,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -891,10 +1019,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -902,10 +1030,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -916,16 +1044,16 @@
         <v>38</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -933,10 +1061,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -944,10 +1072,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -958,7 +1086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -969,7 +1097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -980,7 +1108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -991,7 +1119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1002,7 +1130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1013,7 +1141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1024,7 +1152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1035,7 +1163,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1046,12 +1174,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>21</v>
@@ -1060,16 +1188,16 @@
         <v>40</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1080,7 +1208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1091,7 +1219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1099,10 +1227,10 @@
         <v>27</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1113,7 +1241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1124,7 +1252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1135,7 +1263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1146,7 +1274,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1157,13 +1285,13 @@
         <v>47</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1174,220 +1302,238 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
+      <c r="B38" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="C38" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
     </row>
   </sheetData>
